--- a/data_table_HF.xlsx
+++ b/data_table_HF.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5104" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="547">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -1384,10 +1384,10 @@
     <t xml:space="preserve">Effect of Electromagnetic Radiation of Cell Phone Tower on Development of Asiatic Honey Bee, Apis cerana F. (Hymenoptera: Apidae)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduced brood, honey and pollen stores, reduced egg laying of queen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased brood, honey and pollen stores, increased egg laying of queen</t>
+    <t xml:space="preserve">Reduced egg laying of queen, reduced brood, honey and pollen stores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased egg laying of queen, increased brood, honey and pollen stores </t>
   </si>
   <si>
     <t xml:space="preserve">Vacha2009</t>
@@ -1612,9 +1612,15 @@
     <t xml:space="preserve">Unchanged homing rate (no effect)</t>
   </si>
   <si>
+    <t xml:space="preserve">0.4696</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reduced homing rate</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0064</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thill2018</t>
   </si>
   <si>
@@ -1627,6 +1633,12 @@
     <t xml:space="preserve">Reduced number of bees compared to control group</t>
   </si>
   <si>
+    <t xml:space="preserve">Bumblebee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No significant differences between high and low exposure groups</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mason bee</t>
   </si>
   <si>
@@ -1643,6 +1655,12 @@
   </si>
   <si>
     <t xml:space="preserve">Drosophila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased number of chromosome aberrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000052 </t>
   </si>
 </sst>
 </file>
@@ -1883,14 +1901,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG355"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I337" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A337" activeCellId="0" sqref="A337"/>
+      <selection pane="bottomRight" activeCell="M354" activeCellId="0" sqref="M354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,7 +1916,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="42.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
@@ -1926,7 +1944,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="58.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="17.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="16.84"/>
   </cols>
   <sheetData>
@@ -15086,6 +15104,9 @@
       <c r="I195" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="J195" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="K195" s="1" t="s">
         <v>84</v>
       </c>
@@ -15110,7 +15131,7 @@
       <c r="AB195" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AC195" s="1" t="s">
+      <c r="AC195" s="4" t="s">
         <v>454</v>
       </c>
       <c r="AD195" s="2" t="n">
@@ -15145,6 +15166,9 @@
       <c r="I196" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="J196" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="K196" s="1" t="s">
         <v>84</v>
       </c>
@@ -15169,7 +15193,7 @@
       <c r="AB196" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AC196" s="1" t="s">
+      <c r="AC196" s="4" t="s">
         <v>454</v>
       </c>
       <c r="AD196" s="2" t="n">
@@ -15204,6 +15228,9 @@
       <c r="I197" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="J197" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="K197" s="1" t="s">
         <v>84</v>
       </c>
@@ -15228,7 +15255,7 @@
       <c r="AB197" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="AC197" s="1" t="s">
+      <c r="AC197" s="4" t="s">
         <v>454</v>
       </c>
       <c r="AD197" s="2" t="n">
@@ -15263,6 +15290,9 @@
       <c r="I198" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="J198" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="K198" s="1" t="s">
         <v>84</v>
       </c>
@@ -15287,7 +15317,7 @@
       <c r="AB198" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="AC198" s="1" t="s">
+      <c r="AC198" s="4" t="s">
         <v>455</v>
       </c>
       <c r="AD198" s="2" t="n">
@@ -22234,6 +22264,9 @@
       <c r="AC343" s="1" t="s">
         <v>529</v>
       </c>
+      <c r="AF343" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
@@ -22271,7 +22304,10 @@
         <v>1176</v>
       </c>
       <c r="AC344" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
+      </c>
+      <c r="AF344" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="AG344" s="1" t="s">
         <v>41</v>
@@ -22279,10 +22315,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>106</v>
@@ -22291,7 +22327,7 @@
         <v>36</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>38</v>
@@ -22313,7 +22349,7 @@
         <v>2160</v>
       </c>
       <c r="AC345" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AD345" s="1"/>
       <c r="AG345" s="1" t="s">
@@ -22322,7 +22358,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>106</v>
@@ -22331,7 +22367,7 @@
         <v>36</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>38</v>
@@ -22353,7 +22389,7 @@
         <v>2160</v>
       </c>
       <c r="AC346" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AD346" s="1"/>
       <c r="AG346" s="1" t="s">
@@ -22362,7 +22398,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>106</v>
@@ -22371,38 +22407,34 @@
         <v>36</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I347" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="J347" s="1" t="n">
-        <v>426</v>
+      <c r="I347" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="K347" s="1" t="n">
         <v>2450</v>
       </c>
       <c r="R347" s="1" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Z347" s="7" t="n">
-        <f aca="false">2*30*24</f>
-        <v>1440</v>
+        <v>2</v>
       </c>
       <c r="AC347" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AD347" s="1"/>
       <c r="AG347" s="1" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>106</v>
@@ -22411,13 +22443,13 @@
         <v>36</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I348" s="1" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J348" s="1" t="n">
         <v>426</v>
@@ -22426,14 +22458,14 @@
         <v>2450</v>
       </c>
       <c r="R348" s="1" t="n">
-        <v>0.87</v>
+        <v>2.13</v>
       </c>
       <c r="Z348" s="7" t="n">
         <f aca="false">2*30*24</f>
         <v>1440</v>
       </c>
       <c r="AC348" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AD348" s="1"/>
       <c r="AG348" s="1" t="s">
@@ -22442,7 +22474,7 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>106</v>
@@ -22451,13 +22483,13 @@
         <v>36</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I349" s="1" t="n">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J349" s="1" t="n">
         <v>426</v>
@@ -22466,53 +22498,54 @@
         <v>2450</v>
       </c>
       <c r="R349" s="1" t="n">
-        <v>0.55</v>
+        <v>0.87</v>
       </c>
       <c r="Z349" s="7" t="n">
         <f aca="false">2*30*24</f>
         <v>1440</v>
       </c>
       <c r="AC349" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="AD349" s="1"/>
       <c r="AG349" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I350" s="1" t="n">
-        <v>152</v>
+        <v>433</v>
       </c>
       <c r="J350" s="1" t="n">
-        <v>594</v>
+        <v>426</v>
       </c>
       <c r="K350" s="1" t="n">
-        <v>900</v>
+        <v>2450</v>
       </c>
       <c r="R350" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="Z350" s="1" t="n">
-        <f aca="false">120*24</f>
-        <v>2880</v>
+        <v>0.55</v>
+      </c>
+      <c r="Z350" s="7" t="n">
+        <f aca="false">2*30*24</f>
+        <v>1440</v>
       </c>
       <c r="AC350" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG350" s="1" t="s">
         <v>41</v>
@@ -22520,7 +22553,7 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>35</v>
@@ -22529,13 +22562,13 @@
         <v>36</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I351" s="1" t="n">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="J351" s="1" t="n">
         <v>594</v>
@@ -22544,14 +22577,14 @@
         <v>900</v>
       </c>
       <c r="R351" s="1" t="n">
-        <v>0.562</v>
+        <v>0.857</v>
       </c>
       <c r="Z351" s="1" t="n">
         <f aca="false">120*24</f>
         <v>2880</v>
       </c>
       <c r="AC351" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG351" s="1" t="s">
         <v>41</v>
@@ -22559,7 +22592,7 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>35</v>
@@ -22568,13 +22601,13 @@
         <v>36</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I352" s="1" t="n">
-        <v>649</v>
+        <v>447</v>
       </c>
       <c r="J352" s="1" t="n">
         <v>594</v>
@@ -22583,14 +22616,14 @@
         <v>900</v>
       </c>
       <c r="R352" s="1" t="n">
-        <v>0.391</v>
+        <v>0.562</v>
       </c>
       <c r="Z352" s="1" t="n">
         <f aca="false">120*24</f>
         <v>2880</v>
       </c>
       <c r="AC352" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG352" s="1" t="s">
         <v>41</v>
@@ -22598,21 +22631,100 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C353" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>540</v>
+      <c r="H353" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I353" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="J353" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="K353" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="R353" s="1" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Z353" s="1" t="n">
+        <f aca="false">120*24</f>
+        <v>2880</v>
+      </c>
+      <c r="AC353" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AG353" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AD354" s="1"/>
+      <c r="A354" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I354" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J354" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K354" s="1" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R354" s="1" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U354" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z354" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC354" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD354" s="2" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AF354" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG354" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AD355" s="1"/>
     </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD356" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
